--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Лист4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Лист5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t xml:space="preserve">Андрей</t>
   </si>
@@ -464,6 +465,45 @@
   </si>
   <si>
     <t xml:space="preserve">Павловна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becoming a Sports Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Western Reserve University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter A. Carfagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports and Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orin Starn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundations of Sports Analytics: Data, Representation, and Models in Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenche Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwestern University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candy Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports Performance Analytics</t>
   </si>
 </sst>
 </file>
@@ -474,11 +514,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -499,6 +540,28 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -543,16 +606,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,242 +668,272 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="b">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="b">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="b">
+      <c r="B15" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="b">
+      <c r="B17" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="b">
+      <c r="B18" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="b">
+      <c r="B19" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="b">
+      <c r="B20" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="b">
+      <c r="B22" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="b">
+      <c r="B23" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="b">
+      <c r="B24" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="b">
+      <c r="B25" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="b">
+      <c r="B26" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="b">
+      <c r="B27" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="b">
+      <c r="B28" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="1" t="b">
+      <c r="B29" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="b">
+      <c r="B30" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -842,7 +955,7 @@
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -852,482 +965,542 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="b">
+      <c r="B1" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="b">
+      <c r="B15" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="b">
+      <c r="B17" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="b">
+      <c r="B18" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="b">
+      <c r="B19" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="1" t="b">
+      <c r="B20" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="b">
+      <c r="B22" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="1" t="b">
+      <c r="B23" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1" t="b">
+      <c r="B24" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="b">
+      <c r="B25" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="1" t="b">
+      <c r="B26" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="b">
+      <c r="B27" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="1" t="b">
+      <c r="B28" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="b">
+      <c r="B29" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="b">
+      <c r="B30" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="b">
+      <c r="B31" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="b">
+      <c r="B32" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="b">
+      <c r="B33" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="1" t="b">
+      <c r="B34" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="b">
+      <c r="B35" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="1" t="b">
+      <c r="B36" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="1" t="b">
+      <c r="B37" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="1" t="b">
+      <c r="B38" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="1" t="b">
+      <c r="B39" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="1" t="b">
+      <c r="B40" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="1" t="b">
+      <c r="B41" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="1" t="b">
+      <c r="B42" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="1" t="b">
+      <c r="B43" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="1" t="b">
+      <c r="B44" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="1" t="b">
+      <c r="B45" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="1" t="b">
+      <c r="B46" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="1" t="b">
+      <c r="B47" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="1" t="b">
+      <c r="B48" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="1" t="b">
+      <c r="B49" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="1" t="b">
+      <c r="B50" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="1" t="b">
+      <c r="B51" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="1" t="b">
+      <c r="B52" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="1" t="b">
+      <c r="B53" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="1" t="b">
+      <c r="B54" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="1" t="b">
+      <c r="B55" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="1" t="b">
+      <c r="B56" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="1" t="b">
+      <c r="B57" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="1" t="b">
+      <c r="B58" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="1" t="b">
+      <c r="B59" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="1" t="b">
+      <c r="B60" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1359,242 +1532,272 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="b">
+      <c r="B1" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="1" t="b">
+      <c r="B15" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="b">
+      <c r="B17" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="1" t="b">
+      <c r="B18" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="1" t="b">
+      <c r="B19" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="1" t="b">
+      <c r="B20" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="1" t="b">
+      <c r="B22" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="1" t="b">
+      <c r="B23" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="1" t="b">
+      <c r="B24" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="b">
+      <c r="B25" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="1" t="b">
+      <c r="B26" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="1" t="b">
+      <c r="B27" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="1" t="b">
+      <c r="B28" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="1" t="b">
+      <c r="B29" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="1" t="b">
+      <c r="B30" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1616,253 +1819,283 @@
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="b">
+      <c r="B1" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="1" t="b">
+      <c r="B15" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="1" t="b">
+      <c r="B17" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="1" t="b">
+      <c r="B18" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="1" t="b">
+      <c r="B19" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="1" t="b">
+      <c r="B20" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="1" t="b">
+      <c r="B22" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="1" t="b">
+      <c r="B23" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="1" t="b">
+      <c r="B24" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="1" t="b">
+      <c r="B25" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="1" t="b">
+      <c r="B26" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="1" t="b">
+      <c r="B27" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="1" t="b">
+      <c r="B28" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="1" t="b">
+      <c r="B29" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="1" t="b">
+      <c r="B30" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1875,4 +2108,91 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="instructors" display="Orin Starn  "/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>